--- a/medicine/Enfance/Joel_Chandler_Harris/Joel_Chandler_Harris.xlsx
+++ b/medicine/Enfance/Joel_Chandler_Harris/Joel_Chandler_Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joel Chandler Harris, né le 9 décembre 1848 et mort le 3 juillet 1908, est un journaliste, auteur de fiction et de folklore américain, principalement connu pour les Contes de l'Oncle Rémus. Harris est né à Eatonton en Géorgie où il travailla comme apprenti dans une plantation pendant son adolescence. Par la suite il s'installa à Atlanta travaillant comme éditeur associé dans le quotidien Atlanta Constitution.
 Enid Blyton s'est inspirée de ses œuvres pour créer la série Jojo Lapin.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Harris a publié six volumes des Contes de l'oncle Rémus entre 1881 et 1907; trois autres livres ont été publiés à titre posthume, après sa mort en 1908.
